--- a/참고 자료/01. 프로젝트 설계/06. 통신 프로토콜/Server 프로토콜.xlsx
+++ b/참고 자료/01. 프로젝트 설계/06. 통신 프로토콜/Server 프로토콜.xlsx
@@ -8,18 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git test\doc\참고 자료\01. 프로젝트 설계\06. 통신 프로토콜\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF96257-20B7-4F92-A314-824AD1CA92FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3558E97-5826-4A0F-8041-3BDD3E332BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="프로토콜 명세(수정 필요)" sheetId="1" r:id="rId1"/>
     <sheet name="프로토콜 흐름도" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -767,16 +778,16 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>출고 시나리오</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>로봇이 (1,1)에 위치 하고 있을 때 로봇이 서버에게 전달하는 메시지 예시
 {{$MSGID=0001[!]CMD=ROBOT_POS[!]X=1[!]Y=1$}}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>라즈베리파이</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>제조 시나리오</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1231,14 +1242,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1254,6 +1259,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1273,14 +1290,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1745,13 +1756,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1766,7 +1777,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3436620" y="4926330"/>
+          <a:off x="3436620" y="4907280"/>
           <a:ext cx="1363980" cy="398145"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1959,14 +1970,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>24765</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>24765</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1981,7 +1992,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4825365" y="5210175"/>
+          <a:off x="4825365" y="5295900"/>
           <a:ext cx="2743200" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2064,13 +2075,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>17145</xdr:colOff>
+      <xdr:colOff>7620</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>184785</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>17145</xdr:rowOff>
     </xdr:to>
@@ -2087,7 +2098,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7560945" y="6261735"/>
+          <a:off x="7551420" y="6261735"/>
           <a:ext cx="1363980" cy="461010"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2143,14 +2154,14 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>348615</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>120015</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>201930</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2165,7 +2176,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9264015" y="9521190"/>
+          <a:off x="9264015" y="15198090"/>
           <a:ext cx="8001000" cy="8263890"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2750,15 +2761,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>97155</xdr:rowOff>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2773,7 +2784,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4933950" y="4848225"/>
+          <a:off x="4914900" y="4895850"/>
           <a:ext cx="2514600" cy="278130"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2856,13 +2867,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2877,7 +2888,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4838700" y="5553075"/>
+          <a:off x="4838700" y="5619750"/>
           <a:ext cx="2667000" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2909,13 +2920,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
+      <xdr:rowOff>163830</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2930,7 +2941,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4914900" y="5886450"/>
+          <a:off x="4914900" y="5962650"/>
           <a:ext cx="2514600" cy="278130"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3419,14 +3430,14 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>276226</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>167956</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>48871</xdr:rowOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>201271</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3449,7 +3460,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9191626" y="3314700"/>
+          <a:off x="9191626" y="9753600"/>
           <a:ext cx="8121330" cy="5954371"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4113,13 +4124,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
+      <xdr:colOff>590550</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>78105</xdr:rowOff>
     </xdr:to>
@@ -4136,8 +4147,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4829175" y="11115675"/>
-          <a:ext cx="2695575" cy="278130"/>
+          <a:off x="4886325" y="11115675"/>
+          <a:ext cx="2562225" cy="278130"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4500,8 +4511,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>674370</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>59</xdr:row>
       <xdr:rowOff>41910</xdr:rowOff>
     </xdr:from>
@@ -4524,7 +4535,796 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7532370" y="12405360"/>
+          <a:off x="7553325" y="12405360"/>
+          <a:ext cx="1363980" cy="462915"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>각 공정 센서값 추출</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>135255</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4C46F43-C18B-465A-9F0B-4FF4DDC4E533}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4886325" y="12430125"/>
+          <a:ext cx="2514600" cy="278130"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>ACK:OK</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="직선 화살표 연결선 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{941DFE4D-20B3-40DB-865D-44159D2AF5C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4810125" y="13192125"/>
+          <a:ext cx="2762250" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="직선 화살표 연결선 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B91A6BCC-2F04-4E8E-84FD-0692F4519222}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4819650" y="13992225"/>
+          <a:ext cx="2667000" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>192405</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C92479B8-50E0-4260-9DCF-B8514BE459C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4829175" y="14373225"/>
+          <a:ext cx="2695575" cy="278130"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Ack: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" baseline="0">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>Pass or Fail </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="1000">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>59055</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="직사각형 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE55CCB7-1B38-4918-9B57-5CA70C338340}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3409950" y="13470255"/>
+          <a:ext cx="1400175" cy="474345"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>센서값 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>DB </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>저장 및</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>불량 여부 기준 센서값</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>판단</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="TextBox 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F17EF96B-F874-46EE-90DC-AD49D4C137C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4810125" y="12744450"/>
+          <a:ext cx="2695575" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>POST/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1~3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>차 공정 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>PI1 ~</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> PI3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>/V1 ~ V3/BODY:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t> SensorValue </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>13335</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>678180</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="직사각형 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{036458A8-EB75-4A26-8A9F-FD89947A465B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7543800" y="14262735"/>
+          <a:ext cx="1363980" cy="462915"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>답변에 따라 각 공정 불량 검출 서보모터 작동</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="직선 화살표 연결선 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCE2CEC6-153C-4CF7-82D8-9140AB2085B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4829175" y="17244060"/>
+          <a:ext cx="2743200" cy="310515"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>683895</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>11430</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="직사각형 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{947546D6-292C-4DF2-9493-646F095D8E99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7541895" y="16482060"/>
           <a:ext cx="1384935" cy="462915"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4559,12 +5359,1909 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>차 공정 제조 시간 </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>랜덤값 추출</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="TextBox 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F371876-1469-4D76-8427-3B26C358FB28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4905375" y="16916400"/>
+          <a:ext cx="2514600" cy="278130"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>POST/4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>차 공정 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>PI4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>/P4/BODY:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t> start </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="직선 화살표 연결선 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F4E65A1-DF47-4253-B30C-858F6E9D6B17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4857750" y="18049875"/>
+          <a:ext cx="2667000" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="TextBox 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A459527B-89CF-49F4-BCB8-99D2A8C34227}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4914900" y="18383250"/>
+          <a:ext cx="2514600" cy="278130"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>ACK:OK</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="직사각형 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9446635C-B78A-46E9-A987-B2606D9782B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3436620" y="17556480"/>
+          <a:ext cx="1363980" cy="474345"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>차 공정 시작 시간</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>변수 저장</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="직사각형 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FBA8D69-30F2-4686-9F6B-D0A1525275A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7562851" y="18669000"/>
+          <a:ext cx="1352550" cy="1266825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> 랜덤값 만큼 대기  </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>1905</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="TextBox 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC0BB7DB-7C9B-4A18-88F4-1C09F64F031A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4838700" y="20050125"/>
+          <a:ext cx="2695575" cy="278130"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>POST/4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>차 공정 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>PI4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>P4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>/BODY:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" baseline="0">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t> end</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="1000">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="직선 화살표 연결선 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22A13B3E-326B-4192-ACDF-1BF9833374CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4800600" y="20368260"/>
+          <a:ext cx="2743200" cy="310515"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>17145</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>173355</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="직사각형 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{490ABDB6-25CD-4D51-83B7-987492F3FC0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3446145" y="20709255"/>
+          <a:ext cx="1363980" cy="474345"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>차 공정 </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>소요시간 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>DB </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>저장</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="직선 화살표 연결선 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FB2238E-38DA-4F86-BA38-DCE9C313E879}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4848225" y="21107400"/>
+          <a:ext cx="2667000" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>11430</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="직사각형 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03F8E7C4-6EBE-4C31-BE16-F6F8AC384A4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7562850" y="21339810"/>
+          <a:ext cx="1363980" cy="462915"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="800">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>각 공정 센서값 추출</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>59055</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="TextBox 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EABECC30-2338-45D6-AFCD-2465728C7235}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4895850" y="21364575"/>
+          <a:ext cx="2514600" cy="278130"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>ACK:OK</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="직선 화살표 연결선 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7C2D6CA-D755-4B6E-94A9-C3A8B07EE03C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4819650" y="22069425"/>
+          <a:ext cx="2657475" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="직선 화살표 연결선 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FFB12CB-8ABA-4D5F-B254-48FEEBEEA246}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4829175" y="22964775"/>
+          <a:ext cx="2667000" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>40005</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="TextBox 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8889E482-59EE-42A6-8069-FB0B5C33BB6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4829175" y="23231475"/>
+          <a:ext cx="2695575" cy="278130"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" baseline="0">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>Ack: Grade, Pass or Fail</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="1000">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>192405</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="직사각형 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07DD6191-02D2-4BF0-9EF7-75AF9E6C369D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3419475" y="22404705"/>
+          <a:ext cx="1400175" cy="664845"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>불량 여부 기준 센서값과 등급 판단 후</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>센서값</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>등급 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>DB </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>저장 </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="TextBox 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C771525-9477-4D5F-B27B-616CD5471385}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4829175" y="21678900"/>
+          <a:ext cx="2695575" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>POST/4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>차 공정 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>PI4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>/P4/BODY:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t> SensorValue </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>108585</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1905</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="직사각형 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CD33DDC-7451-4EEA-B00F-CB5A0AF42031}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7553325" y="23368635"/>
+          <a:ext cx="1363980" cy="462915"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>등급 판단 서보모터 작동</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>11430</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="직사각형 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B198179-827D-4483-94D9-16BB334C0607}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7562850" y="15087600"/>
+          <a:ext cx="1363980" cy="461010"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>컨베이어벨트 구동</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>13335</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="직사각형 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B114825-1BA4-4249-A4EE-5B2D4CE23B05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7543800" y="15763875"/>
+          <a:ext cx="1384935" cy="462915"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>초음파 센서 물체 감지 및</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>컨베이어벨트 정지</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>165735</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1905</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="직사각형 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C997C1A5-ED09-4358-A839-A9C4633D6D08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7553325" y="23844885"/>
+          <a:ext cx="1363980" cy="462915"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>불량 여부 서보모터 작동</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1905</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="직사각형 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83BD54AA-F184-4EB5-9823-317FE46461C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7553325" y="24307800"/>
+          <a:ext cx="1363980" cy="461010"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>컨베이어벨트 구동</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
             <a:solidFill>
@@ -4982,41 +7679,41 @@
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="31"/>
-      <c r="D30" s="32"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="30"/>
       <c r="F30" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="36"/>
-      <c r="D31" s="37"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="39"/>
       <c r="F31" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="30" t="s">
+      <c r="B32" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="31"/>
-      <c r="D32" s="32"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="30"/>
       <c r="F32" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="38" t="s">
+      <c r="B33" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="39"/>
-      <c r="D33" s="40"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="42"/>
       <c r="F33" t="s">
         <v>102</v>
       </c>
@@ -5059,95 +7756,95 @@
       </c>
     </row>
     <row r="44" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="30" t="s">
+      <c r="B44" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C44" s="31"/>
-      <c r="D44" s="32"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="30"/>
     </row>
     <row r="45" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="30" t="s">
+      <c r="B45" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="31"/>
-      <c r="D45" s="32"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="30"/>
     </row>
     <row r="47" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="42" t="s">
+      <c r="B47" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="C47" s="43"/>
-      <c r="D47" s="43"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
     </row>
     <row r="48" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="42"/>
-      <c r="C48" s="43"/>
-      <c r="D48" s="43"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="36"/>
     </row>
     <row r="49" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="42"/>
-      <c r="C49" s="43"/>
-      <c r="D49" s="43"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="36"/>
     </row>
     <row r="50" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="42"/>
-      <c r="C50" s="43"/>
-      <c r="D50" s="43"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="36"/>
     </row>
     <row r="51" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="42"/>
-      <c r="C51" s="43"/>
-      <c r="D51" s="43"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="36"/>
     </row>
     <row r="52" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="42"/>
-      <c r="C52" s="43"/>
-      <c r="D52" s="43"/>
+      <c r="B52" s="27"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
     </row>
     <row r="53" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="42"/>
-      <c r="C53" s="43"/>
-      <c r="D53" s="43"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
     </row>
     <row r="54" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="42"/>
-      <c r="C54" s="43"/>
-      <c r="D54" s="43"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
     </row>
     <row r="55" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="42"/>
-      <c r="C55" s="43"/>
-      <c r="D55" s="43"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="36"/>
     </row>
     <row r="56" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="42"/>
-      <c r="C56" s="43"/>
-      <c r="D56" s="43"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="36"/>
     </row>
     <row r="57" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="42"/>
-      <c r="C57" s="43"/>
-      <c r="D57" s="43"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="36"/>
     </row>
     <row r="58" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="42"/>
-      <c r="C58" s="43"/>
-      <c r="D58" s="43"/>
+      <c r="B58" s="27"/>
+      <c r="C58" s="36"/>
+      <c r="D58" s="36"/>
     </row>
     <row r="59" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="42"/>
-      <c r="C59" s="43"/>
-      <c r="D59" s="43"/>
+      <c r="B59" s="27"/>
+      <c r="C59" s="36"/>
+      <c r="D59" s="36"/>
     </row>
     <row r="60" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="42"/>
-      <c r="C60" s="43"/>
-      <c r="D60" s="43"/>
+      <c r="B60" s="27"/>
+      <c r="C60" s="36"/>
+      <c r="D60" s="36"/>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B61" s="43"/>
-      <c r="C61" s="43"/>
-      <c r="D61" s="43"/>
+      <c r="B61" s="36"/>
+      <c r="C61" s="36"/>
+      <c r="D61" s="36"/>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B63" s="3" t="s">
@@ -5155,21 +7852,21 @@
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B64" s="42" t="s">
-        <v>118</v>
-      </c>
-      <c r="C64" s="43"/>
-      <c r="D64" s="43"/>
+      <c r="B64" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="C64" s="36"/>
+      <c r="D64" s="36"/>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B65" s="43"/>
-      <c r="C65" s="43"/>
-      <c r="D65" s="43"/>
+      <c r="B65" s="36"/>
+      <c r="C65" s="36"/>
+      <c r="D65" s="36"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B66" s="43"/>
-      <c r="C66" s="43"/>
-      <c r="D66" s="43"/>
+      <c r="B66" s="36"/>
+      <c r="C66" s="36"/>
+      <c r="D66" s="36"/>
     </row>
     <row r="68" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B68" s="6" t="s">
@@ -5204,121 +7901,121 @@
       </c>
     </row>
     <row r="75" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="30" t="s">
+      <c r="B75" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="C75" s="31"/>
-      <c r="D75" s="32"/>
-      <c r="F75" s="33" t="s">
+      <c r="C75" s="29"/>
+      <c r="D75" s="30"/>
+      <c r="F75" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="G75" s="33"/>
-      <c r="H75" s="33"/>
-      <c r="I75" s="33"/>
+      <c r="G75" s="31"/>
+      <c r="H75" s="31"/>
+      <c r="I75" s="31"/>
     </row>
     <row r="76" spans="2:9" ht="28.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="41" t="s">
+      <c r="B76" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="C76" s="28"/>
-      <c r="D76" s="29"/>
-      <c r="F76" s="34" t="s">
+      <c r="C76" s="34"/>
+      <c r="D76" s="35"/>
+      <c r="F76" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="G76" s="34"/>
-      <c r="H76" s="34"/>
-      <c r="I76" s="34"/>
+      <c r="G76" s="32"/>
+      <c r="H76" s="32"/>
+      <c r="I76" s="32"/>
     </row>
     <row r="77" spans="2:9" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="30" t="s">
+      <c r="B77" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="C77" s="31"/>
-      <c r="D77" s="32"/>
-      <c r="F77" s="33" t="s">
+      <c r="C77" s="29"/>
+      <c r="D77" s="30"/>
+      <c r="F77" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="G77" s="33"/>
-      <c r="H77" s="33"/>
-      <c r="I77" s="33"/>
+      <c r="G77" s="31"/>
+      <c r="H77" s="31"/>
+      <c r="I77" s="31"/>
     </row>
     <row r="78" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="30" t="s">
+      <c r="B78" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="C78" s="31"/>
-      <c r="D78" s="32"/>
-      <c r="F78" s="34" t="s">
+      <c r="C78" s="29"/>
+      <c r="D78" s="30"/>
+      <c r="F78" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="G78" s="34"/>
-      <c r="H78" s="34"/>
-      <c r="I78" s="34"/>
+      <c r="G78" s="32"/>
+      <c r="H78" s="32"/>
+      <c r="I78" s="32"/>
     </row>
     <row r="79" spans="2:9" ht="31.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="30" t="s">
+      <c r="B79" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="C79" s="31"/>
-      <c r="D79" s="32"/>
-      <c r="F79" s="34" t="s">
+      <c r="C79" s="29"/>
+      <c r="D79" s="30"/>
+      <c r="F79" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="G79" s="34"/>
-      <c r="H79" s="34"/>
-      <c r="I79" s="34"/>
+      <c r="G79" s="32"/>
+      <c r="H79" s="32"/>
+      <c r="I79" s="32"/>
     </row>
     <row r="80" spans="2:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="27" t="s">
+      <c r="B80" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="C80" s="28"/>
-      <c r="D80" s="29"/>
-      <c r="F80" s="33" t="s">
+      <c r="C80" s="34"/>
+      <c r="D80" s="35"/>
+      <c r="F80" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="G80" s="33"/>
-      <c r="H80" s="33"/>
-      <c r="I80" s="33"/>
+      <c r="G80" s="31"/>
+      <c r="H80" s="31"/>
+      <c r="I80" s="31"/>
     </row>
     <row r="81" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="30" t="s">
+      <c r="B81" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C81" s="31"/>
-      <c r="D81" s="32"/>
-      <c r="F81" s="33" t="s">
+      <c r="C81" s="29"/>
+      <c r="D81" s="30"/>
+      <c r="F81" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="G81" s="33"/>
-      <c r="H81" s="33"/>
-      <c r="I81" s="33"/>
+      <c r="G81" s="31"/>
+      <c r="H81" s="31"/>
+      <c r="I81" s="31"/>
     </row>
     <row r="82" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="30" t="s">
+      <c r="B82" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="C82" s="31"/>
-      <c r="D82" s="32"/>
-      <c r="F82" s="33" t="s">
+      <c r="C82" s="29"/>
+      <c r="D82" s="30"/>
+      <c r="F82" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="G82" s="33"/>
-      <c r="H82" s="33"/>
-      <c r="I82" s="33"/>
+      <c r="G82" s="31"/>
+      <c r="H82" s="31"/>
+      <c r="I82" s="31"/>
     </row>
     <row r="83" spans="2:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="30" t="s">
+      <c r="B83" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C83" s="31"/>
-      <c r="D83" s="32"/>
-      <c r="F83" s="33" t="s">
+      <c r="C83" s="29"/>
+      <c r="D83" s="30"/>
+      <c r="F83" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="G83" s="33"/>
-      <c r="H83" s="33"/>
-      <c r="I83" s="33"/>
+      <c r="G83" s="31"/>
+      <c r="H83" s="31"/>
+      <c r="I83" s="31"/>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="16" t="s">
@@ -5436,58 +8133,58 @@
       </c>
     </row>
     <row r="97" spans="2:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="42" t="s">
+      <c r="B97" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C97" s="42"/>
-      <c r="D97" s="42"/>
+      <c r="C97" s="27"/>
+      <c r="D97" s="27"/>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B98" s="42"/>
-      <c r="C98" s="42"/>
-      <c r="D98" s="42"/>
+      <c r="B98" s="27"/>
+      <c r="C98" s="27"/>
+      <c r="D98" s="27"/>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B99" s="42"/>
-      <c r="C99" s="42"/>
-      <c r="D99" s="42"/>
+      <c r="B99" s="27"/>
+      <c r="C99" s="27"/>
+      <c r="D99" s="27"/>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B100" s="42"/>
-      <c r="C100" s="42"/>
-      <c r="D100" s="42"/>
+      <c r="B100" s="27"/>
+      <c r="C100" s="27"/>
+      <c r="D100" s="27"/>
     </row>
     <row r="102" spans="2:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="33" t="s">
+      <c r="B102" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C102" s="33"/>
-      <c r="D102" s="33"/>
+      <c r="C102" s="31"/>
+      <c r="D102" s="31"/>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B103" s="33"/>
-      <c r="C103" s="33"/>
-      <c r="D103" s="33"/>
+      <c r="B103" s="31"/>
+      <c r="C103" s="31"/>
+      <c r="D103" s="31"/>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B104" s="33"/>
-      <c r="C104" s="33"/>
-      <c r="D104" s="33"/>
+      <c r="B104" s="31"/>
+      <c r="C104" s="31"/>
+      <c r="D104" s="31"/>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B105" s="33"/>
-      <c r="C105" s="33"/>
-      <c r="D105" s="33"/>
+      <c r="B105" s="31"/>
+      <c r="C105" s="31"/>
+      <c r="D105" s="31"/>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B106" s="33"/>
-      <c r="C106" s="33"/>
-      <c r="D106" s="33"/>
+      <c r="B106" s="31"/>
+      <c r="C106" s="31"/>
+      <c r="D106" s="31"/>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B107" s="33"/>
-      <c r="C107" s="33"/>
-      <c r="D107" s="33"/>
+      <c r="B107" s="31"/>
+      <c r="C107" s="31"/>
+      <c r="D107" s="31"/>
     </row>
     <row r="109" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B109" s="6" t="s">
@@ -5504,106 +8201,106 @@
       </c>
     </row>
     <row r="113" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="30" t="s">
+      <c r="B113" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="C113" s="31"/>
-      <c r="D113" s="32"/>
+      <c r="C113" s="29"/>
+      <c r="D113" s="30"/>
       <c r="F113" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="114" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="30" t="s">
+      <c r="B114" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C114" s="31"/>
-      <c r="D114" s="32"/>
+      <c r="C114" s="29"/>
+      <c r="D114" s="30"/>
       <c r="F114" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="115" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="30" t="s">
+      <c r="B115" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="C115" s="31"/>
-      <c r="D115" s="32"/>
+      <c r="C115" s="29"/>
+      <c r="D115" s="30"/>
       <c r="F115" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="116" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="30" t="s">
+      <c r="B116" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="C116" s="31"/>
-      <c r="D116" s="32"/>
-      <c r="F116" s="34" t="s">
+      <c r="C116" s="29"/>
+      <c r="D116" s="30"/>
+      <c r="F116" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="G116" s="34"/>
-      <c r="H116" s="34"/>
-      <c r="I116" s="34"/>
+      <c r="G116" s="32"/>
+      <c r="H116" s="32"/>
+      <c r="I116" s="32"/>
     </row>
     <row r="117" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="30" t="s">
+      <c r="B117" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="C117" s="31"/>
-      <c r="D117" s="32"/>
-      <c r="F117" s="33" t="s">
+      <c r="C117" s="29"/>
+      <c r="D117" s="30"/>
+      <c r="F117" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="G117" s="33"/>
-      <c r="H117" s="33"/>
-      <c r="I117" s="33"/>
+      <c r="G117" s="31"/>
+      <c r="H117" s="31"/>
+      <c r="I117" s="31"/>
     </row>
     <row r="118" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="30" t="s">
+      <c r="B118" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="C118" s="31"/>
-      <c r="D118" s="32"/>
-      <c r="F118" s="34" t="s">
+      <c r="C118" s="29"/>
+      <c r="D118" s="30"/>
+      <c r="F118" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="G118" s="34"/>
-      <c r="H118" s="34"/>
-      <c r="I118" s="34"/>
+      <c r="G118" s="32"/>
+      <c r="H118" s="32"/>
+      <c r="I118" s="32"/>
     </row>
     <row r="119" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="30" t="s">
+      <c r="B119" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="C119" s="31"/>
-      <c r="D119" s="32"/>
-      <c r="F119" s="34" t="s">
+      <c r="C119" s="29"/>
+      <c r="D119" s="30"/>
+      <c r="F119" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="G119" s="34"/>
-      <c r="H119" s="34"/>
-      <c r="I119" s="34"/>
+      <c r="G119" s="32"/>
+      <c r="H119" s="32"/>
+      <c r="I119" s="32"/>
     </row>
     <row r="120" spans="2:9" ht="85.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="30" t="s">
+      <c r="B120" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C120" s="31"/>
-      <c r="D120" s="32"/>
-      <c r="F120" s="33" t="s">
+      <c r="C120" s="29"/>
+      <c r="D120" s="30"/>
+      <c r="F120" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="G120" s="33"/>
-      <c r="H120" s="33"/>
-      <c r="I120" s="33"/>
+      <c r="G120" s="31"/>
+      <c r="H120" s="31"/>
+      <c r="I120" s="31"/>
     </row>
     <row r="121" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="30" t="s">
+      <c r="B121" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="C121" s="31"/>
-      <c r="D121" s="32"/>
+      <c r="C121" s="29"/>
+      <c r="D121" s="30"/>
       <c r="F121" t="s">
         <v>72</v>
       </c>
@@ -5720,22 +8417,18 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B97:D100"/>
-    <mergeCell ref="B116:D116"/>
-    <mergeCell ref="B115:D115"/>
-    <mergeCell ref="B114:D114"/>
-    <mergeCell ref="B113:D113"/>
-    <mergeCell ref="B102:D107"/>
-    <mergeCell ref="B121:D121"/>
-    <mergeCell ref="B120:D120"/>
-    <mergeCell ref="B119:D119"/>
-    <mergeCell ref="B118:D118"/>
-    <mergeCell ref="B117:D117"/>
-    <mergeCell ref="F117:I117"/>
-    <mergeCell ref="F118:I118"/>
-    <mergeCell ref="F119:I119"/>
-    <mergeCell ref="F120:I120"/>
-    <mergeCell ref="F116:I116"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="F80:I80"/>
+    <mergeCell ref="F81:I81"/>
+    <mergeCell ref="F82:I82"/>
+    <mergeCell ref="F83:I83"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B80:D80"/>
     <mergeCell ref="F79:I79"/>
     <mergeCell ref="B44:D44"/>
     <mergeCell ref="B45:D45"/>
@@ -5750,18 +8443,22 @@
     <mergeCell ref="F76:I76"/>
     <mergeCell ref="F77:I77"/>
     <mergeCell ref="F78:I78"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="F80:I80"/>
-    <mergeCell ref="F81:I81"/>
-    <mergeCell ref="F82:I82"/>
-    <mergeCell ref="F83:I83"/>
+    <mergeCell ref="F117:I117"/>
+    <mergeCell ref="F118:I118"/>
+    <mergeCell ref="F119:I119"/>
+    <mergeCell ref="F120:I120"/>
+    <mergeCell ref="F116:I116"/>
+    <mergeCell ref="B121:D121"/>
+    <mergeCell ref="B120:D120"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="B118:D118"/>
+    <mergeCell ref="B117:D117"/>
+    <mergeCell ref="B97:D100"/>
+    <mergeCell ref="B116:D116"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="B114:D114"/>
+    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="B102:D107"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5774,15 +8471,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:M150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="M63" sqref="M63"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
@@ -5799,7 +8496,7 @@
       <c r="H4" s="45"/>
       <c r="I4" s="46"/>
       <c r="J4" s="44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K4" s="45"/>
       <c r="L4" s="45"/>
